--- a/src/test/resources/AutoTest2.xlsx
+++ b/src/test/resources/AutoTest2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12750" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12750" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ISBG_Project_One" sheetId="1" r:id="rId1"/>
@@ -3446,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3604,7 +3604,7 @@
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>42908</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>42909</v>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
